--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-C.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-C.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-C.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-C.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,37 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +486,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +527,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1101,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1120,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'C': 37.5 ton, 2.64 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'C': 0.0-75.0 ton, 4.69 COP, 5.86 IPLV liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1139,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>04e19f33-6165-491c-a56a-f579bce281b5</t>
+          <t>34ea7160-77c8-4643-a1ff-6b72fe5da2fa</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1158,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1481,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>60325.5736469725</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1520,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1539,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1555,81 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1953,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2108,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2152,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2209,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2231,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2240,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12480.89087083842</v>
+        <v>7020.500130032378</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>33321.1319055062</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>45802.02277634463</v>
+        <v>40341.63203553858</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4403121755117</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.2207289812338</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2268,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2277,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18351.37272024378</v>
+        <v>10322.64570710804</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>66642.26381101241</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>84993.6365312562</v>
+        <v>76964.90951812045</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.8417354621346</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.327074096541</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2305,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2314,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27062.82959133794</v>
+        <v>15222.83950971434</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>99963.39571651861</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>127026.2253078566</v>
+        <v>115186.235226233</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.2431587487575</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.5136174618515</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2342,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2351,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38615.26148412089</v>
+        <v>21721.08153785127</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>133284.5276220248</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>171899.7891061457</v>
+        <v>155005.6091598761</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.6445820353804</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.7803590771656</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2379,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2388,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13932.48590810818</v>
+        <v>7837.022223957401</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>31768.58181488205</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>45701.06772299024</v>
+        <v>39605.60403883945</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3750148783845</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.2965688413269</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2416,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2425,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20485.73651233773</v>
+        <v>11523.22517174728</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>63537.16362976411</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>84022.90014210185</v>
+        <v>75060.38880151139</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7111408678802</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.3822311676773</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2453,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2462,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30210.38288186874</v>
+        <v>16993.33798727781</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>95305.74544464616</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>125516.1283265149</v>
+        <v>112299.083431924</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0472668573759</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.5577395344436</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2490,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2499,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43106.42501670119</v>
+        <v>24247.360670549</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>127074.3272595282</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>170180.7522762294</v>
+        <v>151321.6879300772</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3833928468715</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.8230939416256</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2527,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2536,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15987.51906045099</v>
+        <v>8992.978209996272</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>29265.86849809193</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>45253.38755854292</v>
+        <v>38258.8467080882</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2697555272966</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.3620929303348</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2564,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2573,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23507.37012177952</v>
+        <v>13222.89383863397</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>58531.73699618386</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>82039.10711796337</v>
+        <v>71754.63083481783</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5006221657042</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.4075965110238</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2601,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2610,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>34666.39588462224</v>
+        <v>19499.84494972155</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>87797.60549427578</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>122464.001378898</v>
+        <v>107297.4504439973</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7314888041119</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.5565307225869</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2638,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2647,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49464.59634897918</v>
+        <v>27823.831543259</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>117063.4739923677</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>166528.0703413469</v>
+        <v>144887.3055356267</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>281.9623554425195</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.8088955650239</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2675,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2684,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18010.62601625031</v>
+        <v>10130.97571299859</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>25812.99195513581</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>43823.61797138612</v>
+        <v>35943.9676681344</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.1245341222478</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.399555838528</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2712,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2721,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26482.06080556218</v>
+        <v>14896.15711354148</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>51625.98391027162</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>78108.04471583381</v>
+        <v>66522.14102381309</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.2101793556067</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.3771178836582</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2749,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2758,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39053.18200080992</v>
+        <v>21967.4117939344</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>77438.97586540744</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>116492.1578662174</v>
+        <v>99406.38765934184</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.2958245889656</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.4715755052334</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2786,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2795,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55723.98960199354</v>
+        <v>31344.73975417737</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>103251.9678205432</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>158975.9574225368</v>
+        <v>134596.7075747206</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.3814698223245</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.6829287032535</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2823,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2832,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12672.60184793149</v>
+        <v>7128.337539520127</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>37498.65096714201</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>50171.2528150735</v>
+        <v>44626.98850666214</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.5083414175216</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.3440685390594</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2860,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2869,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18633.2564120095</v>
+        <v>10481.205261484</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>74997.30193428401</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>93630.55834629352</v>
+        <v>85478.50719576802</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.0889050572654</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.570886875497</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2897,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2906,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27478.52439690513</v>
+        <v>15456.66780504517</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>112495.952901426</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>139974.4772983312</v>
+        <v>127952.6207064712</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.6694686970092</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.8791353359308</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2934,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2943,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>39208.40580261838</v>
+        <v>22054.72517020361</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>149994.603868568</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>189203.0096711864</v>
+        <v>172049.3290387716</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.250032336753</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.2688139203606</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2971,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +2980,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14205.60025052722</v>
+        <v>7990.649020017814</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>35969.37018001581</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>50174.97043054303</v>
+        <v>43960.01920003362</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4438824158042</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.4233150670352</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3008,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3017,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20887.31226080347</v>
+        <v>11749.11149857261</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>71938.74036003162</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>92826.05262083509</v>
+        <v>83687.85185860423</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.9599870538306</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.6316255832355</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3045,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3054,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30802.58795635637</v>
+        <v>17326.45329494871</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>107908.1105400474</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>138710.6984964038</v>
+        <v>125234.5638349961</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4760916918571</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9315433648338</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3082,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3091,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>43951.4273371859</v>
+        <v>24722.6744091461</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>143877.4807200632</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>187828.9080572492</v>
+        <v>168600.1551292093</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.9921963298834</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.3230684118303</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3119,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3128,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16599.26848005328</v>
+        <v>9337.087210252001</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>33489.92616672362</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>50089.1946467769</v>
+        <v>42827.01337697562</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3393741480901</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.4995335917334</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3156,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3165,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24406.86052889019</v>
+        <v>13728.85712165875</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>66979.85233344724</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>91386.71286233743</v>
+        <v>80708.70945510599</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7509705184025</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.6732690435626</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3193,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3202,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>35992.87734068391</v>
+        <v>20245.9906640892</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>100469.7785001709</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>136462.6558408548</v>
+        <v>120715.7691642601</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1625668887149</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.954392815271</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3230,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3239,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>51357.31891543445</v>
+        <v>28888.48783754337</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>133959.7046668945</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>185317.0235823289</v>
+        <v>162848.1925044378</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5741632590272</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3429049068587</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3267,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3276,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>19241.2769259572</v>
+        <v>10823.21675260326</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>30060.31892726545</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>49301.59585322264</v>
+        <v>40883.53567986871</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.1948166143794</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.5557510492942</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3304,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3313,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>28291.55772098717</v>
+        <v>15913.9989856883</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>60120.63785453089</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>88412.19557551807</v>
+        <v>76034.63684021919</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.461855450981</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.670923198322</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3341,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3350,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>41721.65304189876</v>
+        <v>23468.42654398913</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>90180.95678179634</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>131902.6098236951</v>
+        <v>113649.3833257855</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.7288942875826</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.9109783001006</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3378,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3387,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>59531.56288869197</v>
+        <v>33486.49942750575</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>120241.2757090618</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>179772.8385977538</v>
+        <v>153727.7751365675</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>285.9959331241843</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.2759163546299</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3415,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3424,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12838.10406636185</v>
+        <v>7221.432524328126</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>39564.9793642716</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>52403.08343063345</v>
+        <v>46786.41188859973</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4874432668332</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.4070711731218</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3452,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3461,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>18876.60385634452</v>
+        <v>10618.08817972093</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>79129.95872854321</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>98006.56258488772</v>
+        <v>89748.04690826414</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.1582198669997</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.6944176630835</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3489,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3498,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>27837.38967188598</v>
+        <v>15658.52949390535</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>118694.9380928148</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>146532.3277647008</v>
+        <v>134353.4675867202</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.8289964671663</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>290.0642577418555</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3526,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3535,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>39720.46151298621</v>
+        <v>22342.75646688136</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>158259.9174570864</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>197980.3789700726</v>
+        <v>180602.6739239678</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.4997730673328</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.5165914094376</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3563,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>14251.53067513793</v>
+        <v>8016.484880237165</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>38058.96788064334</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>52310.49855578128</v>
+        <v>46075.45276088051</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.4238463994303</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.4838148470843</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3600,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3609,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>20954.84640960367</v>
+        <v>11787.09945194389</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>76117.93576128669</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>97072.78217089036</v>
+        <v>87905.03521323059</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>288.0310261321939</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.7519359648547</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3637,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3646,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>30902.18078728174</v>
+        <v>17382.47425448578</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>114176.90364193</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>145079.0844292118</v>
+        <v>131559.3778964158</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.6382058649576</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.111960538295</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3674,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3683,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>44093.53380817215</v>
+        <v>24802.60928786284</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>152235.8715225734</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>196329.4053307455</v>
+        <v>177038.4808104362</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.2453855977212</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.563888567405</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3711,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3720,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>16667.89769505255</v>
+        <v>9375.691138273851</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>35602.79317084909</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>52270.69086590165</v>
+        <v>44978.48430912294</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3201253992684</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.5615348828777</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3748,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3757,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>24507.77001660088</v>
+        <v>13785.61870053367</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>71205.58634169819</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>95713.35635829908</v>
+        <v>84991.20504223186</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8235841318702</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.7962385361149</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3785,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3794,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>36141.68889345954</v>
+        <v>20329.69715078341</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>106808.3795125473</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>142950.0684060068</v>
+        <v>127138.0766633307</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.327042864472</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.1387745032605</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3822,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3831,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>51569.65432562851</v>
+        <v>29007.92648902304</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>142411.1726833964</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>193980.8270090249</v>
+        <v>171419.0991724194</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.8305015970738</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.5891427843146</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3859,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3868,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>19497.91021661733</v>
+        <v>10967.57295834974</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>32196.45523488887</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>51694.36545150619</v>
+        <v>43164.02819323861</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.1762802663476</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.6239767997044</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3896,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3905,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>28668.90042977814</v>
+        <v>16126.2542296087</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>64392.91046977774</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>93061.81089955589</v>
+        <v>80519.16469938644</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.5358938660286</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.8034990613842</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3933,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3942,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>42278.12157322987</v>
+        <v>23781.4400489543</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>96589.3657046666</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>138867.4872778965</v>
+        <v>120370.8057536209</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.8955074657097</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.1095699201082</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3970,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +3979,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>60325.5736469725</v>
+        <v>33933.13041638654</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>128785.8209395555</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>189111.394586528</v>
+        <v>162718.951355942</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.2551210653907</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.5421893758764</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4007,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4016,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>13206.18968870981</v>
+        <v>7428.480657854778</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>39520.11709689505</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>52726.30678560486</v>
+        <v>46948.59775474983</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3772023993373</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.416195486863</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4044,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4053,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>19417.82134783409</v>
+        <v>10922.52297597864</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>79040.23419379009</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>98458.05554162418</v>
+        <v>89962.75716976874</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>292.0488492431191</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.7071629159431</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4081,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4090,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>28635.52488320325</v>
+        <v>16107.48048729385</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>118560.3512906851</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>147195.8761738884</v>
+        <v>134667.831777979</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.7204960869008</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>290.0829891354098</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4118,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4127,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>40859.30029481727</v>
+        <v>22983.35319180039</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>158080.4683875802</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>198939.7686823974</v>
+        <v>181063.8215793806</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.3921429306826</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.5436741452634</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4155,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4164,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>14345.08447419991</v>
+        <v>8069.108884827593</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>38037.37491676473</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>52382.45939096464</v>
+        <v>46106.48380159232</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.3144844352311</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.4858535065846</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4192,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4201,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>21092.40394886495</v>
+        <v>11864.47555692428</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>76074.74983352947</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>97167.15378239442</v>
+        <v>87939.22539045374</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.9234133149066</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.7546095244634</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4229,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4238,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>31105.03734198106</v>
+        <v>17496.5810504976</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>114112.1247502942</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>145217.1620922753</v>
+        <v>131608.7058007918</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.5323421945822</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.1158722958346</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4266,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4275,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>44382.98465354826</v>
+        <v>24965.42536554757</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>152149.4996670589</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>196532.4843206072</v>
+        <v>177114.9250326065</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.1412710742577</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.5696418206982</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4303,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4312,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>16514.22912738768</v>
+        <v>9289.252581087694</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>35604.46951046843</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>52118.69863785611</v>
+        <v>44893.72209155612</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2115758675848</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.5572150429898</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4340,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4349,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>24281.82227057956</v>
+        <v>13658.52311122525</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>71208.93902093686</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>95490.76129151642</v>
+        <v>84867.46213216211</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.7175961796141</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.7899120610003</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4377,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4386,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>35808.48301069869</v>
+        <v>20142.26886802229</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>106813.4085314053</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>142621.891542104</v>
+        <v>126955.6773994276</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.2236164916433</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.1294472401155</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4414,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4423,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>51094.21134774508</v>
+        <v>28740.48985147881</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>142417.8780418737</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>193512.0893896188</v>
+        <v>171158.3678933525</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.7296368036726</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.5758205803353</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4451,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4460,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>19147.36343984881</v>
+        <v>10770.39042407761</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>32221.40087800614</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>51368.76431785495</v>
+        <v>42991.79130208374</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.0684766963985</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.6146928378496</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4488,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4497,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>28153.47131314435</v>
+        <v>15836.32539217252</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>64442.80175601228</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>92596.27306915662</v>
+        <v>80279.12714818479</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.4313978372414</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.790225042922</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4525,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4534,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>41518.01656296615</v>
+        <v>23353.88104065763</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>96664.20263401841</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>138182.2191969845</v>
+        <v>120018.083674676</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.7943189780843</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.0900306677347</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4562,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.008457279905243961</v>
+        <v>0.007440120152706196</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4571,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>59240.99918931423</v>
+        <v>33323.05736953292</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>128885.6035120246</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>188126.6027013388</v>
+        <v>162208.6608815575</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.1572401189272</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.5141097122877</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4771,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.005650768266874505</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.005650768266874505</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.005650768266874505</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.005650768266874505</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.007440120152706196</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.007440120152706196</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.007440120152706196</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.007440120152706196</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>